--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732099.4986159963</v>
+        <v>-734634.4694918508</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13600012.60016763</v>
+        <v>13600012.60016764</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>332.4467765760107</v>
       </c>
       <c r="D2" t="n">
-        <v>182.7197473048156</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>78.59706651789017</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>33.7736356667029</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.7502047985977</v>
       </c>
       <c r="T4" t="n">
-        <v>15.56511163633411</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>81.29036521067808</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>335.2177016912301</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>237.7725515853591</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>163.1356014563219</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>232.8259547974237</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>228.2480391817888</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>107.6238993430267</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.00971856836598</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>59.31005804030049</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756221</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892457</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>218.8658348647373</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>212.89882061057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>27.24739666248491</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41770597126533</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1458.811090838974</v>
+        <v>2312.009746557806</v>
       </c>
       <c r="C2" t="n">
-        <v>1089.848573898562</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>905.2831725805665</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878907</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y2" t="n">
-        <v>1845.410930903096</v>
+        <v>2698.609586621928</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>737.039959987662</v>
+        <v>517.0053994558008</v>
       </c>
       <c r="C4" t="n">
-        <v>737.039959987662</v>
+        <v>348.0692165278939</v>
       </c>
       <c r="D4" t="n">
-        <v>586.9233205753262</v>
+        <v>197.9525771155582</v>
       </c>
       <c r="E4" t="n">
-        <v>439.0102269929331</v>
+        <v>197.9525771155582</v>
       </c>
       <c r="F4" t="n">
-        <v>292.1202794950228</v>
+        <v>197.9525771155582</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>197.9525771155582</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1731.65580317067</v>
       </c>
       <c r="T4" t="n">
-        <v>1911.572213102297</v>
+        <v>1509.889187740196</v>
       </c>
       <c r="U4" t="n">
-        <v>1911.572213102297</v>
+        <v>1509.889187740196</v>
       </c>
       <c r="V4" t="n">
-        <v>1656.88772489641</v>
+        <v>1255.204699534309</v>
       </c>
       <c r="W4" t="n">
-        <v>1367.470554859449</v>
+        <v>965.7875294973483</v>
       </c>
       <c r="X4" t="n">
-        <v>1139.481003961432</v>
+        <v>737.7979785993309</v>
       </c>
       <c r="Y4" t="n">
-        <v>918.6884248179017</v>
+        <v>517.0053994558008</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1771.429619686768</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1402.467102746356</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1402.467102746356</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1016.678850148112</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>605.6929453585042</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>190.6204952035006</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923659</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662579</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y5" t="n">
-        <v>1771.429619686768</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1465.353638127353</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1465.353638127353</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1175.936468090393</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>1175.936468090393</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2984.761578205166</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2653.698690861595</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2300.930035591481</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>1927.464277330401</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,37 +4884,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>788.4062285743621</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>619.4700456464552</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>469.3534062341195</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>321.4403126517263</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>970.0546934046018</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.8125159357153</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524077</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2169.539922596168</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940366</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734479</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327634</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>594.8179559048565</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>444.7013164925207</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>296.7882229101276</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6172,10 +6172,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,28 +7345,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,13 +7637,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,13 +7807,13 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>32.82611519499682</v>
       </c>
       <c r="D2" t="n">
-        <v>171.9632943158674</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>87.42874174113805</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>110.9813792476179</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>80.9846548059234</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516662</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>67.31863952450689</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>190.1580536648034</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>110.0033420516659</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26323,13 +26323,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
@@ -26338,19 +26338,19 @@
         <v>242143.9799070017</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070019</v>
       </c>
       <c r="M2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="N2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="N2" t="n">
-        <v>246312.530959285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592848</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
         <v>104482.7459291436</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18515.33659095097</v>
+        <v>18515.33659095089</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
@@ -26436,7 +26436,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
@@ -26451,7 +26451,7 @@
         <v>21597.66737493621</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="O4" t="n">
         <v>21597.66737493623</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1247922.902754468</v>
+        <v>-1248248.247844749</v>
       </c>
       <c r="C6" t="n">
-        <v>45584.74751469769</v>
+        <v>45584.74751469804</v>
       </c>
       <c r="D6" t="n">
-        <v>45584.74751469765</v>
+        <v>45584.74751469752</v>
       </c>
       <c r="E6" t="n">
-        <v>-197997.8198361032</v>
+        <v>-198032.5577615389</v>
       </c>
       <c r="F6" t="n">
-        <v>127414.641971252</v>
+        <v>127379.904045816</v>
       </c>
       <c r="G6" t="n">
-        <v>127414.6419712519</v>
+        <v>127379.9040458163</v>
       </c>
       <c r="H6" t="n">
-        <v>127414.641971252</v>
+        <v>127379.9040458164</v>
       </c>
       <c r="I6" t="n">
-        <v>127414.6419712519</v>
+        <v>127379.9040458162</v>
       </c>
       <c r="J6" t="n">
-        <v>-90116.56042602561</v>
+        <v>-90151.29835146142</v>
       </c>
       <c r="K6" t="n">
-        <v>127414.6419712519</v>
+        <v>127379.9040458164</v>
       </c>
       <c r="L6" t="n">
-        <v>127414.641971252</v>
+        <v>127379.9040458162</v>
       </c>
       <c r="M6" t="n">
-        <v>17068.00180128975</v>
+        <v>17068.00180128957</v>
       </c>
       <c r="N6" t="n">
+        <v>121550.7477304332</v>
+      </c>
+      <c r="O6" t="n">
         <v>121550.7477304334</v>
-      </c>
-      <c r="O6" t="n">
-        <v>121550.7477304332</v>
       </c>
       <c r="P6" t="n">
         <v>121550.7477304334</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>85.01882053284415</v>
       </c>
       <c r="T4" t="n">
-        <v>203.9838376398351</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>213.3173991766424</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>51.02023696482348</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>48.4392866202538</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>62.57405393271529</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>132.4469369735839</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>22.74713277711322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>37.79714867990457</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.6999368206712</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295185</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
